--- a/Проект.xlsx
+++ b/Проект.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artur\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97FAB57-6D4E-4717-B9AB-36DF1811419E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CF78B-4BAB-4F93-B287-7CFF6289B78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B15D982-C2A7-422E-AD45-6A26FAAB141A}"/>
+    <workbookView xWindow="2415" yWindow="1020" windowWidth="21600" windowHeight="11385" xr2:uid="{7B15D982-C2A7-422E-AD45-6A26FAAB141A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Номер</t>
   </si>
@@ -44,14 +44,14 @@
   <si>
     <t>Время</t>
   </si>
-  <si>
-    <t xml:space="preserve">  12:00:00</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +85,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,27 +400,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57CC1DF-36A1-4D21-A10C-FDD12816BA52}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -432,10 +432,10 @@
         <v>77085337947</v>
       </c>
       <c r="B2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>45413</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -446,7 +446,7 @@
         <v>77472845332</v>
       </c>
       <c r="B3" s="1">
-        <v>45292</v>
+        <v>45413</v>
       </c>
       <c r="C3" s="2">
         <v>0.54166666666666663</v>
@@ -460,13 +460,27 @@
         <v>77472845332</v>
       </c>
       <c r="B4" s="1">
-        <v>45292</v>
+        <v>45413</v>
       </c>
       <c r="C4" s="2">
         <v>0.5</v>
       </c>
       <c r="D4">
         <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>77085337947</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Проект.xlsx
+++ b/Проект.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artur\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CF78B-4BAB-4F93-B287-7CFF6289B78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D36722-7AE5-4855-B327-F0398668AA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2415" yWindow="1020" windowWidth="21600" windowHeight="11385" xr2:uid="{7B15D982-C2A7-422E-AD45-6A26FAAB141A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Номер</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Время</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>12-20</t>
+  </si>
+  <si>
+    <t>20+</t>
   </si>
 </sst>
 </file>
@@ -82,10 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57CC1DF-36A1-4D21-A10C-FDD12816BA52}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +423,7 @@
     <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +436,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>77085337947</v>
       </c>
@@ -440,8 +459,17 @@
       <c r="D2">
         <v>120</v>
       </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>77472845332</v>
       </c>
@@ -454,8 +482,17 @@
       <c r="D3">
         <v>120</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>77472845332</v>
       </c>
@@ -468,8 +505,17 @@
       <c r="D4">
         <v>180</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>77085337947</v>
       </c>
@@ -481,6 +527,15 @@
       </c>
       <c r="D5">
         <v>120</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
